--- a/clases.xlsx
+++ b/clases.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\adsi\quinto\oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\adsi\sexto\oscar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04DABA-BC5D-4611-BD46-6465C26C9096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD84EC9F-748A-4D7A-B2C5-F50E4FDD802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FF41D06-D61B-4223-A4A5-12A9AB68D76C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diccionario de datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Anexo 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="654">
   <si>
     <t>Microservicio Autenticación</t>
   </si>
@@ -1000,13 +1001,1121 @@
   </si>
   <si>
     <t xml:space="preserve">Registro </t>
+  </si>
+  <si>
+    <t>Microservicio facturacion</t>
+  </si>
+  <si>
+    <t>Facturación</t>
+  </si>
+  <si>
+    <t>Num.fact</t>
+  </si>
+  <si>
+    <t>Empr.nom</t>
+  </si>
+  <si>
+    <t>Empr.nit</t>
+  </si>
+  <si>
+    <t>Empr.tel</t>
+  </si>
+  <si>
+    <t>Empr.corr</t>
+  </si>
+  <si>
+    <t>Clie.nom</t>
+  </si>
+  <si>
+    <t>Clie.dni</t>
+  </si>
+  <si>
+    <t>Clie.tel</t>
+  </si>
+  <si>
+    <t>Clie.dir</t>
+  </si>
+  <si>
+    <t>Clie.corr</t>
+  </si>
+  <si>
+    <t>Fact.cant</t>
+  </si>
+  <si>
+    <t>Fact.subt</t>
+  </si>
+  <si>
+    <t>Fact.descr</t>
+  </si>
+  <si>
+    <t>Fact.valor</t>
+  </si>
+  <si>
+    <t>Fact.iva</t>
+  </si>
+  <si>
+    <t>fact.total</t>
+  </si>
+  <si>
+    <t>Microservicio auteticacion</t>
+  </si>
+  <si>
+    <t>Microservicio paciente</t>
+  </si>
+  <si>
+    <t>Consultar factura</t>
+  </si>
+  <si>
+    <t>Pagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion </t>
+  </si>
+  <si>
+    <t>tipo y tamaño</t>
+  </si>
+  <si>
+    <t>Antecedentes familiares paternos</t>
+  </si>
+  <si>
+    <t>Antecedentes familiares maternos</t>
+  </si>
+  <si>
+    <t>Antecedentes personales patologicos</t>
+  </si>
+  <si>
+    <t>Antecedentes personales quirurgicos</t>
+  </si>
+  <si>
+    <t>Antecedentes personales traumaticos</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Antecedentes personales toxicos</t>
+  </si>
+  <si>
+    <t>Antecedentes personales alergicos</t>
+  </si>
+  <si>
+    <t>Antecedentes personales farmacologicos</t>
+  </si>
+  <si>
+    <t>Enfermedades de transmision sexual</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico  FUP</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico FUM</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico Planificacion</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico Dismenorrea</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico Dispareunia</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico Eco-mamaria</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico ciclo  menstrual</t>
+  </si>
+  <si>
+    <t>Antecendes personales gineco-obstetrico observaciones</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Hepatitis A</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Hepatitis B</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Triple Viral</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Tetanos</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Malaria</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Fiebre Amarilla</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Covid</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Fiebre Tifoidea</t>
+  </si>
+  <si>
+    <t>Carne Manipulacion alimentos  Fecha</t>
+  </si>
+  <si>
+    <t>Inmunizaciones Observaciones</t>
+  </si>
+  <si>
+    <t>Habitos Cigarrillo</t>
+  </si>
+  <si>
+    <t>Habitos Alcohol</t>
+  </si>
+  <si>
+    <t>Habitos Drogas</t>
+  </si>
+  <si>
+    <t>Habitos Deportes</t>
+  </si>
+  <si>
+    <t>Habitos lesiones</t>
+  </si>
+  <si>
+    <t>Habitos Observaciones</t>
+  </si>
+  <si>
+    <t>Sistema Dermatologico</t>
+  </si>
+  <si>
+    <t>Sistema Osteomuscular</t>
+  </si>
+  <si>
+    <t>Sistema Osteoarticular</t>
+  </si>
+  <si>
+    <t>Sistema Genitourinario</t>
+  </si>
+  <si>
+    <t>Sistema Metabolico</t>
+  </si>
+  <si>
+    <t>Sistema Neurologico</t>
+  </si>
+  <si>
+    <t>Sistema Cardiorespiratorio</t>
+  </si>
+  <si>
+    <t>Sistema Endocrinologico</t>
+  </si>
+  <si>
+    <t>Sistema Urologico</t>
+  </si>
+  <si>
+    <t>Sistema Gastroinstestinal</t>
+  </si>
+  <si>
+    <t>Sistema ORL</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Fisico 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Fisico 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Fisico 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biologico 1</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biologico 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biologico 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biologico 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Quimico 1</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Quimico 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Quimico 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Quimico 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Seguridad 1</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Seguridad 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Seguridad 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Seguridad 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biomecanico 1</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biomecanico 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biomecanico 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Biomecanico 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual  Psicosocial 1</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual  Psicosocial 2</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual  Psicosocial 3</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual  Psicosocial 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto Fisico 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto Fisico 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto Fisico 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto Fisico 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biologico 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biologico 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biologico 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biologico 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Quimico 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Quimico 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Quimico 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Quimico 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Seguridad 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Seguridad 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Seguridad 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Seguridad 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biomecanico 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biomecanico 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biomecanico 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Biomecanico 4</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Psicosocial 1</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Psicosocial 2</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Psicosocial 3</t>
+  </si>
+  <si>
+    <t>Antecedente Riesgo Expuesto  Psicosocial 4</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual Observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condiciones Actuales Equipos utilizados  </t>
+  </si>
+  <si>
+    <t>Condiciones Actuale Actividad principal realizada</t>
+  </si>
+  <si>
+    <t>Datos Ocupacionales Accidentes y enfermedades laborales empresa 1</t>
+  </si>
+  <si>
+    <t>Datos Ocupacionales Diagnostico 1</t>
+  </si>
+  <si>
+    <t>Datos Ocupacionales Accidentes y enfermedades laborales empresa 2</t>
+  </si>
+  <si>
+    <t>Datos Ocupacionales Diagnostico 2</t>
+  </si>
+  <si>
+    <t>Datos Ocupacionales Observaciones</t>
+  </si>
+  <si>
+    <t>Cierre Historia Clinica Concepto Descriptivo</t>
+  </si>
+  <si>
+    <t>Cierre Historia Clinica Concepto Reomendaciones</t>
+  </si>
+  <si>
+    <t>Cierre Historia Clinica Concepto Aplazado</t>
+  </si>
+  <si>
+    <t>Cierre Historia Clinica observaciones</t>
+  </si>
+  <si>
+    <t>Cierre Historia Clinica concepto Final</t>
+  </si>
+  <si>
+    <t>varchar (50)</t>
+  </si>
+  <si>
+    <t>Antecedentes observaciones</t>
+  </si>
+  <si>
+    <t>varchar (500)</t>
+  </si>
+  <si>
+    <t>varchar (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades cardiovasculares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades congenitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades de trasmision sexual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades del sistema locomotor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades del sistema nervioso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades dermatologicas </t>
+  </si>
+  <si>
+    <t>Enfermedades endocrinologicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades gastrointestinales </t>
+  </si>
+  <si>
+    <t>Enfermedades genitourinario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades infecciosas y parasitarias </t>
+  </si>
+  <si>
+    <t>Enfermedades inmunologicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades mentales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades oncologicas </t>
+  </si>
+  <si>
+    <t>Enfermedades respiratorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTECEDENTES FAMILIARES </t>
+  </si>
+  <si>
+    <t>Sin valor por defecto caja de texto</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>char(2)</t>
+  </si>
+  <si>
+    <t>char(7)</t>
+  </si>
+  <si>
+    <t>char(8)</t>
+  </si>
+  <si>
+    <t>Riesgo Expuesto Actual  Fisico 1</t>
+  </si>
+  <si>
+    <t>Rie.exp.fis4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Refiere /  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No refiere</t>
+    </r>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Si / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fecha actual / calendario /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Primera / Segunda / Tercera / Refuerzo / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Anormal</t>
+    </r>
+  </si>
+  <si>
+    <t>Computador</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Maquinas</t>
+  </si>
+  <si>
+    <t>Herramientas manuales</t>
+  </si>
+  <si>
+    <t>Heramientas mecanicas</t>
+  </si>
+  <si>
+    <t>Otras Herramientas</t>
+  </si>
+  <si>
+    <t>EQUIPOS UTILIZADOS</t>
+  </si>
+  <si>
+    <t>varchar(22)</t>
+  </si>
+  <si>
+    <t>varchar (100)</t>
+  </si>
+  <si>
+    <t>varchar (300)</t>
+  </si>
+  <si>
+    <t>cie.concep.aplaza</t>
+  </si>
+  <si>
+    <t>Cierrre Historia Clinica Aplazado</t>
+  </si>
+  <si>
+    <t>int (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cierre Historia Clinica Concepto Remitido a donde </t>
+  </si>
+  <si>
+    <t>Remitido</t>
+  </si>
+  <si>
+    <t>E.P.S</t>
+  </si>
+  <si>
+    <t>A.R.L</t>
+  </si>
+  <si>
+    <t>Especialista</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>Audiologia</t>
+  </si>
+  <si>
+    <t>Fonologia</t>
+  </si>
+  <si>
+    <t>Oftalmologia</t>
+  </si>
+  <si>
+    <t>Ortoptica</t>
+  </si>
+  <si>
+    <t>Otorrinolaringologo</t>
+  </si>
+  <si>
+    <t>varchar (25)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aprobado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / No aprobado</t>
+    </r>
+  </si>
+  <si>
+    <t>Antecedentes Extralaborales  uso de audifonos / manoslibres</t>
+  </si>
+  <si>
+    <t>Antecedentes Extralaborales ambientes ruidosos</t>
+  </si>
+  <si>
+    <t>Antecedentes Extralaborales practica de poligono / caceria</t>
+  </si>
+  <si>
+    <t>Antecedentes Extralaborales presto servicio militar</t>
+  </si>
+  <si>
+    <t>Antecedentes Extralaborales uso de motociclera</t>
+  </si>
+  <si>
+    <t>Antecedentes Nosoacusticos sensacion de perdida</t>
+  </si>
+  <si>
+    <t>Antecedentes Nosoacusticos otalgia</t>
+  </si>
+  <si>
+    <t>Antecedentes Nosoacusticos acufenos</t>
+  </si>
+  <si>
+    <t>Antecedentes Nosoacusticos otorrea</t>
+  </si>
+  <si>
+    <t>Antecedentes Nosoacusticos cirugias</t>
+  </si>
+  <si>
+    <t>Antecedentes Morbilidad problemas de equilibrio</t>
+  </si>
+  <si>
+    <t>Antecedentes Morbilidad dificutad comunicativa</t>
+  </si>
+  <si>
+    <t>Antecedentes Morbilidad  antecedentes familiares</t>
+  </si>
+  <si>
+    <t>Antecedentes Morbilidad  congenitos enfermedades</t>
+  </si>
+  <si>
+    <t>Antecedentes Morbilidad ototoxicos</t>
+  </si>
+  <si>
+    <t>Antecedentes EPA 1</t>
+  </si>
+  <si>
+    <t>Antecedentes EPA 2</t>
+  </si>
+  <si>
+    <t>Antecedentes EPA 3</t>
+  </si>
+  <si>
+    <t>Ant.EPA1 tipo</t>
+  </si>
+  <si>
+    <t>Ant.EPA2 tipo</t>
+  </si>
+  <si>
+    <t>Ant.EPA3 tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes EPA 1 tipo </t>
+  </si>
+  <si>
+    <t>Antecedentes EPA 2 tipo</t>
+  </si>
+  <si>
+    <t>Antecedentes EPA 3 tipo</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  -10dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  0 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  10 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  20 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  30 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  40 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  50 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  60 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  70 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  80 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  90 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  100 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  110 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido izquierdo  120 dB</t>
+  </si>
+  <si>
+    <t>varchar (7)</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (Hz)</t>
+  </si>
+  <si>
+    <t>0 Hz</t>
+  </si>
+  <si>
+    <t>500 Hz</t>
+  </si>
+  <si>
+    <t>250 Hz</t>
+  </si>
+  <si>
+    <t>125 Hz</t>
+  </si>
+  <si>
+    <t>1000 Hz</t>
+  </si>
+  <si>
+    <t>2000 Hz</t>
+  </si>
+  <si>
+    <t>4000 Hz</t>
+  </si>
+  <si>
+    <t>8000 Hz</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (equipos utilizados)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (remitido)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (antecedentes damiliares)</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  -10dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  0 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  10 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  20 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  30 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  40 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  50 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  60 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  70 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  80 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  90 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  100 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  110 dB</t>
+  </si>
+  <si>
+    <t>Audiometria tonal oido derecho  120 dB</t>
+  </si>
+  <si>
+    <t>Ni idea</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia pabellon auricular oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia conducto auditivo oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia membrana timpanica oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia pabellon auricular oido derecho</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia conducto auditivo oido derecho</t>
+  </si>
+  <si>
+    <t>Valoracion otoscopia membrana timpanica oido derecho</t>
+  </si>
+  <si>
+    <t>Valoraciones PTA oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoraciones PTA oido derecho</t>
+  </si>
+  <si>
+    <t>float (10)</t>
+  </si>
+  <si>
+    <t>Valoracion STS</t>
+  </si>
+  <si>
+    <t>varchar (30)</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  rine oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  webber oido izquierdo</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  larsen modif oido izquierdo</t>
+  </si>
+  <si>
+    <t>varchar(8)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Positivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / Negativo</t>
+    </r>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (webber)</t>
+  </si>
+  <si>
+    <t>WEBER</t>
+  </si>
+  <si>
+    <t>Lateraliza OD</t>
+  </si>
+  <si>
+    <t>Lateraliza OI</t>
+  </si>
+  <si>
+    <t>Indiferente</t>
+  </si>
+  <si>
+    <t>No lateraliza</t>
+  </si>
+  <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Grado I</t>
+  </si>
+  <si>
+    <t>Grado II</t>
+  </si>
+  <si>
+    <t>Grado III</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (larsen)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (pabellon)</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (conducto)</t>
+  </si>
+  <si>
+    <t>Conducto</t>
+  </si>
+  <si>
+    <t>Tapon total cerumen</t>
+  </si>
+  <si>
+    <t>Tapon parcial cerumen</t>
+  </si>
+  <si>
+    <t>Descamación</t>
+  </si>
+  <si>
+    <t>Eritema</t>
+  </si>
+  <si>
+    <t>Secreciones</t>
+  </si>
+  <si>
+    <t>Otomicosis</t>
+  </si>
+  <si>
+    <t>Otitis</t>
+  </si>
+  <si>
+    <t>Cuerpo extraño</t>
+  </si>
+  <si>
+    <t>Membrana</t>
+  </si>
+  <si>
+    <t>Opaca</t>
+  </si>
+  <si>
+    <t>Perforación</t>
+  </si>
+  <si>
+    <t>Incontinua</t>
+  </si>
+  <si>
+    <t>Abombamiento</t>
+  </si>
+  <si>
+    <t>Placas</t>
+  </si>
+  <si>
+    <t>Tubo de ventilación</t>
+  </si>
+  <si>
+    <t>No se observa</t>
+  </si>
+  <si>
+    <t>ver anexo 1 (Membrana)</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  rine oido derecho</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  webber oido derecho</t>
+  </si>
+  <si>
+    <t>Valoracion acumetria  larsen modif oido derecho</t>
+  </si>
+  <si>
+    <t>Antecedentes psicologicos o psiquiatricos tratamientos</t>
+  </si>
+  <si>
+    <t>Antecedentes psicologicos o psiquiatricos enfermedades</t>
+  </si>
+  <si>
+    <t>Antecedentes psicologicos o psiquiatricos alteracion del sueño</t>
+  </si>
+  <si>
+    <t>Observacion de conductas presentacion</t>
+  </si>
+  <si>
+    <t>Observacion de conductas postura</t>
+  </si>
+  <si>
+    <t>Observacion de conductas discurso - ritmo</t>
+  </si>
+  <si>
+    <t>Observacion de conductas tono</t>
+  </si>
+  <si>
+    <t>Observacion de conductas articulacion</t>
+  </si>
+  <si>
+    <t>Observacion de conductas orientacion - tiempo</t>
+  </si>
+  <si>
+    <t>Observacion de conductas orientacion - espacio</t>
+  </si>
+  <si>
+    <t>Observacion de conductas orientacion - persona</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  gestion organizacional</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  caracteristicas de la organiacion de trabajo</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  condicion de la tarea</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  caracteristicas del grupo de trabajo</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  interface persona - tarea</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  jornada de trabajo</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  condiciones de medio ambiente de trabajo</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  carga</t>
+  </si>
+  <si>
+    <t>Ries.emp.obs</t>
+  </si>
+  <si>
+    <t>Riesgos psicosociales intralaborares  observaciones</t>
+  </si>
+  <si>
+    <t>Resultado examen psicomotriz</t>
+  </si>
+  <si>
+    <t>Resultado examen personalidad</t>
+  </si>
+  <si>
+    <t>Resultado examen inteligencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +2129,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1029,7 +2162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1156,11 +2289,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1175,6 +2388,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,12 +2418,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFD759A-78F0-4F71-BCD0-F7C29157BD1F}">
-  <dimension ref="B3:R121"/>
+  <dimension ref="B3:AE122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,87 +2853,155 @@
     <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="41.28515625" customWidth="1"/>
-    <col min="10" max="10" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.28515625" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" customWidth="1"/>
-    <col min="18" max="18" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+    <col min="14" max="14" width="61.85546875" customWidth="1"/>
+    <col min="15" max="16" width="37.28515625" customWidth="1"/>
+    <col min="18" max="18" width="37.28515625" customWidth="1"/>
+    <col min="19" max="19" width="78.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="37.28515625" customWidth="1"/>
+    <col min="23" max="23" width="34.7109375" customWidth="1"/>
+    <col min="25" max="25" width="31.42578125" customWidth="1"/>
+    <col min="27" max="27" width="36.85546875" customWidth="1"/>
+    <col min="29" max="29" width="32.5703125" customWidth="1"/>
+    <col min="31" max="31" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="H4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="M4" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="R4" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="W4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Y4" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="AA4" s="10" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="AC4" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="N6" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="R6" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="S6" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="W6" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="Y6" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="AA6" s="18" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="AC6" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE6" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="R7" s="18"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="F7" s="21"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="22"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="AA7" s="22"/>
+      <c r="AC7" s="19"/>
+      <c r="AE7" s="22"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1625,21 +3015,52 @@
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="S8" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA8" s="2"/>
+      <c r="AC8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
@@ -1653,21 +3074,48 @@
       <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="S9" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="W9" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA9" s="3"/>
+      <c r="AC9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1681,21 +3129,48 @@
       <c r="H10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="S10" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="W10" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1709,21 +3184,48 @@
       <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="S11" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="W11" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1737,21 +3239,48 @@
       <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="S12" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="W12" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1765,21 +3294,48 @@
       <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="S13" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="W13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1793,21 +3349,48 @@
       <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="S14" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="W14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1821,21 +3404,48 @@
       <c r="H15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="S15" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="W15" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1849,23 +3459,52 @@
       <c r="H16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="S16" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="W16" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Y16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC16" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1879,23 +3518,52 @@
       <c r="H17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="S17" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="W17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="Y17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="AA17" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC17" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1909,23 +3577,52 @@
       <c r="H18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="S18" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="W18" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="Y18" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="AA18" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC18" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -1939,23 +3636,52 @@
       <c r="H19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="S19" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="W19" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="Y19" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
@@ -1963,23 +3689,52 @@
       <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="S20" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="W20" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC20" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1993,23 +3748,52 @@
       <c r="H21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="S21" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="W21" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Y21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC21" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2021,23 +3805,52 @@
       <c r="H22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="S22" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="W22" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="Y22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
@@ -2049,23 +3862,52 @@
       <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="I23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="N23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="S23" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="W23" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Y23" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="AA23" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE23" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -2075,20 +3917,46 @@
       <c r="H24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="I24" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="S24" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="W24" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="Y24" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC24" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
@@ -2100,17 +3968,43 @@
       <c r="H25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="I25" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="N25" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="S25" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="W25" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC25" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2120,17 +4014,43 @@
       <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="I26" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="S26" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="W26" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC26" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
@@ -2144,17 +4064,41 @@
       <c r="H27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="I27" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="W27" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
@@ -2168,17 +4112,43 @@
       <c r="H28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="N28" s="3" t="s">
+      <c r="I28" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="U28" s="3"/>
+      <c r="W28" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
@@ -2192,17 +4162,40 @@
       <c r="H29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="I29" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="W29" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
@@ -2210,17 +4203,40 @@
       <c r="H30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N30" s="3" t="s">
+      <c r="I30" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="W30" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
@@ -2234,17 +4250,40 @@
       <c r="H31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N31" s="3" t="s">
+      <c r="I31" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="W31" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -2252,17 +4291,40 @@
       <c r="H32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N32" s="3" t="s">
+      <c r="I32" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="W32" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
@@ -2274,17 +4336,40 @@
       <c r="H33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="I33" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="W33" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
@@ -2292,17 +4377,40 @@
       <c r="H34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="N34" s="3" t="s">
+      <c r="I34" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="W34" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
@@ -2316,736 +4424,2429 @@
       <c r="H35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="I35" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="W35" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N36" s="3" t="s">
+      <c r="I36" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="W36" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="3" t="s">
+      <c r="I37" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="W37" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="3" t="s">
+      <c r="I38" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R38" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="49"/>
+      <c r="W38" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="I39" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R39" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="51"/>
+      <c r="W39" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N40" s="3" t="s">
+      <c r="I40" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R40" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="51"/>
+      <c r="W40" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N41" s="3" t="s">
+      <c r="I41" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="R41" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="54"/>
+      <c r="W41" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N42" s="3" t="s">
+      <c r="I42" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W42" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N43" s="3" t="s">
+      <c r="I43" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W43" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" s="3" t="s">
+      <c r="I44" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W44" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="I45" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N46" s="3" t="s">
+      <c r="I46" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W46" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="N47" s="3" t="s">
+      <c r="I47" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W47" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="H48" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N48" s="3" t="s">
+      <c r="I48" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W48" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H49" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N49" s="3" t="s">
+      <c r="I49" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W49" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H50" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="N50" s="3" t="s">
+      <c r="I50" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W50" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H51" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N51" s="3" t="s">
+      <c r="I51" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W51" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N52" s="3" t="s">
+      <c r="I52" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W52" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N53" s="3" t="s">
+      <c r="I53" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W53" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="N54" s="3" t="s">
+      <c r="I54" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W54" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H55" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N55" s="3" t="s">
+      <c r="I55" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W55" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H56" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N56" s="3" t="s">
+      <c r="I56" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="W56" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H57" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N57" s="3" t="s">
+      <c r="I57" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="W57" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H58" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N58" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H59" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N59" s="3" t="s">
+      <c r="I59" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H60" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N60" s="3" t="s">
+      <c r="I60" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="W60" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H61" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J61" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N61" s="3" t="s">
+      <c r="I61" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="W61" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="I62" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="W62" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N63" s="3" t="s">
+      <c r="I63" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="W63" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H64" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N64" s="3" t="s">
+      <c r="I64" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J64" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="W64" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H65" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N65" s="3" t="s">
+      <c r="I65" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W65" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H66" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N66" s="3" t="s">
+      <c r="I66" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W66" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H67" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N67" s="3" t="s">
+      <c r="I67" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W67" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N68" s="3" t="s">
+      <c r="I68" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="W68" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H69" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N69" s="3" t="s">
+      <c r="I69" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W69" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H70" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="N70" s="3" t="s">
+      <c r="I70" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="W70" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N71" s="3" t="s">
+      <c r="I71" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="W71" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H72" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N72" s="3" t="s">
+      <c r="I72" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W72" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H73" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N73" s="3" t="s">
+      <c r="I73" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="W73" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N74" s="4" t="s">
+      <c r="I74" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W74" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N75" s="7" t="s">
+      <c r="I75" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W75" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>141</v>
+      <c r="I76" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="N76" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="W76" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H77" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J77" s="7" t="s">
-        <v>143</v>
+      <c r="I77" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="N77" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="P77" s="45">
+        <v>0</v>
+      </c>
+      <c r="W77" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H78" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N78" s="8" t="s">
+      <c r="I78" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="W78" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:23" x14ac:dyDescent="0.25">
       <c r="H79" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="8:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I79" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="J79" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="8:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H80" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H81" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J81" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M81" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="49"/>
+    </row>
+    <row r="82" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H82" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J82" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M82" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="51"/>
+    </row>
+    <row r="83" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H83" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M83" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="51"/>
+    </row>
+    <row r="84" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H84" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="J84" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="M84" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="N84" s="53"/>
+      <c r="O84" s="53"/>
+      <c r="P84" s="54"/>
+    </row>
+    <row r="85" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H85" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J85" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H86" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="J86" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H87" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J87" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="88" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H88" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J88" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H89" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J89" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="90" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H90" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="91" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H91" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="92" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H92" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H93" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="94" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H94" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H95" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="96" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H96" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H97" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H98" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H99" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H100" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H101" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J101" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H102" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H103" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H104" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H105" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="J105" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H106" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H107" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H108" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H109" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H110" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H111" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H112" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H115" s="3" t="s">
+      <c r="I114" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="K115" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H116" s="3" t="s">
+      <c r="I116" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="117" spans="8:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H117" s="4" t="s">
+      <c r="I117" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H118" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H118" s="7" t="s">
+      <c r="I118" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="46" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H119" s="6" t="s">
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="49"/>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" s="50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H120" s="6" t="s">
+      <c r="I120" s="48"/>
+      <c r="J120" s="48"/>
+      <c r="K120" s="51"/>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="50" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="8:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H121" s="8" t="s">
+      <c r="I121" s="48"/>
+      <c r="J121" s="48"/>
+      <c r="K121" s="51"/>
+    </row>
+    <row r="122" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H122" s="52" t="s">
         <v>144</v>
       </c>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="36">
+    <mergeCell ref="R39:U39"/>
+    <mergeCell ref="R40:U40"/>
+    <mergeCell ref="R41:U41"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P82"/>
+    <mergeCell ref="M83:P83"/>
+    <mergeCell ref="M84:P84"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="M6:M7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F76CB4-6E73-48BB-89E3-7365BCD76DEB}">
+  <dimension ref="B1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="F2" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="F3" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>554</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="F5" s="42" t="s">
+        <v>499</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="F8" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="F9" s="42" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="F10" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="F11" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="F12" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="F13" s="42" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="F14" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="F15" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="56" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="H16" s="42" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="H17" s="57" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="H18" s="43" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="F20" s="9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="F21" s="59" t="s">
+        <v>601</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="F22" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="F23" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="F24" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="H25" s="42" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="H26" s="42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="H27" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="H28" s="42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="42" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="H30" s="43" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>